--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1858.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1858.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1783538128060579</v>
+        <v>1.407949209213257</v>
       </c>
       <c r="B1">
-        <v>0.2402348471313054</v>
+        <v>2.694223403930664</v>
       </c>
       <c r="C1">
-        <v>0.3982069112077813</v>
+        <v>3.340522527694702</v>
       </c>
       <c r="D1">
-        <v>1.677037476353097</v>
+        <v>3.173795461654663</v>
       </c>
       <c r="E1">
-        <v>3.36088006152763</v>
+        <v>2.365808963775635</v>
       </c>
     </row>
   </sheetData>
